--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\exceljsTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\exceljsTest\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392FE5A5-AACE-4DE8-9CF4-5AD103FC22FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE853A13-593B-466E-8063-9ABE308A104F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC0150B3-1299-472E-ACE2-DAE3BD1060C4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>8시</t>
   </si>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규설치항목</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -374,6 +378,58 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -394,7 +450,7 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,18 +478,33 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1984,6 +2055,62 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="104775" cy="238125"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Text Box 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B75434-A986-4F3E-98B7-E19FB1F151A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7658100"/>
+          <a:ext cx="104775" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2284,15 +2411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E33EDD-A8C3-4AB4-B132-8E6DDA63D439}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="10" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
@@ -2301,207 +2428,373 @@
     <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" ht="26.25">
+      <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:3" ht="25.5" customHeight="1">
+      <c r="A4" s="13"/>
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:3" ht="25.5" customHeight="1">
+      <c r="A5" s="13"/>
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="17.25">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="17.25">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="17.25">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="17.25">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="17.25">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="17.25">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="17.25">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="17.25">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="17.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="17.25">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C16"/>
     </row>
-    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="17.25">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C17"/>
     </row>
-    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="17.25">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C18"/>
     </row>
-    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="17.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C19"/>
     </row>
-    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="17.25">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="17.25">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C21"/>
     </row>
-    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="17.25">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="17.25">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="17.25">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="17.25">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="17.25">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C26"/>
     </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="17.25">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="17.25">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="17.25">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="17.25">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="17.25">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="17.25">
       <c r="A32" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C32"/>
     </row>
-    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="17.25">
       <c r="A33" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C33"/>
     </row>
-    <row r="34" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="18" thickBot="1">
       <c r="A34" s="8" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A38" s="18"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="15"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="16"/>
+    </row>
+    <row r="42" spans="1:3" ht="17.25">
+      <c r="A42" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17.25">
+      <c r="A43" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17.25">
+      <c r="A44" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17.25">
+      <c r="A45" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17.25">
+      <c r="A46" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17.25">
+      <c r="A47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17.25">
+      <c r="A48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="17.25">
+      <c r="A49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="17.25">
+      <c r="A50" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="17.25">
+      <c r="A51" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="17.25">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="17.25">
+      <c r="A53" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="17.25">
+      <c r="A54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="17.25">
+      <c r="A55" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="17.25">
+      <c r="A56" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="17.25">
+      <c r="A57" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="17.25">
+      <c r="A58" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="17.25">
+      <c r="A59" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="17.25">
+      <c r="A60" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="17.25">
+      <c r="A61" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="17.25">
+      <c r="A62" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="17.25">
+      <c r="A63" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="17.25">
+      <c r="A64" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="17.25">
+      <c r="A65" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="17.25">
+      <c r="A66" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="17.25">
+      <c r="A67" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="17.25">
+      <c r="A68" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="17.25">
+      <c r="A69" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="18" thickBot="1">
+      <c r="A70" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\exceljsTest\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE853A13-593B-466E-8063-9ABE308A104F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F31E49-2536-4B23-9198-0C4CE1D8E634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC0150B3-1299-472E-ACE2-DAE3BD1060C4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
   <si>
     <t>8시</t>
   </si>
@@ -266,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -383,58 +383,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -450,7 +398,7 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -485,26 +433,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2069,6 +2006,174 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B75434-A986-4F3E-98B7-E19FB1F151A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7658100"/>
+          <a:ext cx="104775" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="104775" cy="238125"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Text Box 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB99A08C-52F9-460C-B44B-16E4C9BF69F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15649575"/>
+          <a:ext cx="104775" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="104775" cy="238125"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Text Box 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3285977-146C-477D-B6F9-8C86ACE135D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7658100"/>
+          <a:ext cx="104775" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="104775" cy="238125"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Text Box 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986C878B-6636-4916-82B3-4726043C884B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,10 +2516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E33EDD-A8C3-4AB4-B132-8E6DDA63D439}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2440,17 +2545,17 @@
       <c r="C2"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C3"/>
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:3" ht="25.5" customHeight="1">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="C5"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1">
@@ -2626,24 +2731,27 @@
         <v>21</v>
       </c>
     </row>
+    <row r="36" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A36" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="A37" s="12"/>
     </row>
     <row r="38" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A38" s="18"/>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" customHeight="1">
       <c r="A39" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="16.5" customHeight="1">
       <c r="A40" s="15"/>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="16"/>
+    <row r="41" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A41" s="15"/>
     </row>
     <row r="42" spans="1:3" ht="17.25">
       <c r="A42" s="2" t="s">
@@ -2789,12 +2897,489 @@
       <c r="A70" s="8" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="12"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="12"/>
+    </row>
+    <row r="74" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A74"/>
+    </row>
+    <row r="75" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A75" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A76" s="15"/>
+    </row>
+    <row r="77" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A77" s="15"/>
+    </row>
+    <row r="78" spans="1:1" ht="17.25">
+      <c r="A78" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="17.25">
+      <c r="A79" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="17.25">
+      <c r="A80" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="17.25">
+      <c r="A81" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="17.25">
+      <c r="A82" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="17.25">
+      <c r="A83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="17.25">
+      <c r="A84" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="17.25">
+      <c r="A85" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="17.25">
+      <c r="A86" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="17.25">
+      <c r="A87" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="17.25">
+      <c r="A88" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="17.25">
+      <c r="A89" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="17.25">
+      <c r="A90" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="17.25">
+      <c r="A91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="17.25">
+      <c r="A92" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="17.25">
+      <c r="A93" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="17.25">
+      <c r="A94" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="17.25">
+      <c r="A95" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="17.25">
+      <c r="A96" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="17.25">
+      <c r="A97" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="17.25">
+      <c r="A98" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="17.25">
+      <c r="A99" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="17.25">
+      <c r="A100" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="17.25">
+      <c r="A101" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="17.25">
+      <c r="A102" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="17.25">
+      <c r="A103" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="17.25">
+      <c r="A104" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="17.25">
+      <c r="A105" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" thickBot="1">
+      <c r="A106" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="12"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="12"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="12"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="12"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="12"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="12"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="12"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="12"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="12"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="12"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="12"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="12"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="12"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="12"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="12"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="12"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="12"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="12"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="12"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="12"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="12"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="12"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="12"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="12"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="12"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="12"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="12"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="12"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="12"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="12"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="12"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="12"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="12"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="12"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="12"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="12"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="12"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="12"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="12"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="12"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="12"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="12"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="12"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="12"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="12"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="12"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="12"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="12"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="12"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="12"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="12"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="12"/>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="12"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="12"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="12"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="12"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="12"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="12"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="12"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="12"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="12"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="12"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="12"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="12"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="12"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="12"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="12"/>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="12"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="12"/>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="12"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="12"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="12"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="12"/>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="12"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="12"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="12"/>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="12"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="12"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="12"/>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="12"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="12"/>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="12"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="12"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="12"/>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="12"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="12"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="12"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="12"/>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="12"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="12"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="12"/>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="12"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="12"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="12"/>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="12"/>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="12"/>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="12"/>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="12"/>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="12"/>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="12"/>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="12"/>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="12"/>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A75:A77"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\exceljsTest\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F31E49-2536-4B23-9198-0C4CE1D8E634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6853714-5A80-4A8E-B7D0-B64931284746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC0150B3-1299-472E-ACE2-DAE3BD1060C4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>8시</t>
   </si>
@@ -141,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2518,11 +2518,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E33EDD-A8C3-4AB4-B132-8E6DDA63D439}">
   <dimension ref="A1:C209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:A106"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.125" style="10" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
@@ -2533,853 +2533,731 @@
     <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" thickBot="1">
+    <row r="2" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:3" ht="25.5" customHeight="1">
+    <row r="4" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:3" ht="25.5" customHeight="1">
+    <row r="5" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1">
+    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:3" ht="17.25">
+    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:3" ht="17.25">
+    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:3" ht="17.25">
+    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:3" ht="17.25">
+    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:3" ht="17.25">
+    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:3" ht="17.25">
+    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:3" ht="17.25">
+    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:3" ht="17.25">
+    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:3" ht="17.25">
+    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:3" ht="17.25">
+    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C16"/>
     </row>
-    <row r="17" spans="1:3" ht="17.25">
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C17"/>
     </row>
-    <row r="18" spans="1:3" ht="17.25">
+    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C18"/>
     </row>
-    <row r="19" spans="1:3" ht="17.25">
+    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C19"/>
     </row>
-    <row r="20" spans="1:3" ht="17.25">
+    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" ht="17.25">
+    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C21"/>
     </row>
-    <row r="22" spans="1:3" ht="17.25">
+    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:3" ht="17.25">
+    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:3" ht="17.25">
+    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:3" ht="17.25">
+    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:3" ht="17.25">
+    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C26"/>
     </row>
-    <row r="27" spans="1:3" ht="17.25">
+    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:3" ht="17.25">
+    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:3" ht="17.25">
+    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:3" ht="17.25">
+    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:3" ht="17.25">
+    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" ht="17.25">
+    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C32"/>
     </row>
-    <row r="33" spans="1:3" ht="17.25">
+    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C33"/>
     </row>
-    <row r="34" spans="1:3" ht="18" thickBot="1">
+    <row r="34" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28.5" customHeight="1">
+    <row r="36" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:3" ht="17.25" thickBot="1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A39" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A40" s="15"/>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A41" s="15"/>
-    </row>
-    <row r="42" spans="1:3" ht="17.25">
-      <c r="A42" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="17.25">
-      <c r="A43" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="17.25">
-      <c r="A44" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="17.25">
-      <c r="A45" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="17.25">
-      <c r="A46" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="17.25">
-      <c r="A47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="17.25">
-      <c r="A48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="17.25">
-      <c r="A49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="17.25">
-      <c r="A50" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="17.25">
-      <c r="A51" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="17.25">
-      <c r="A52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="17.25">
-      <c r="A53" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="17.25">
-      <c r="A54" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="17.25">
-      <c r="A55" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="17.25">
-      <c r="A56" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="17.25">
-      <c r="A57" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="17.25">
-      <c r="A58" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="17.25">
-      <c r="A59" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="17.25">
-      <c r="A60" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="17.25">
-      <c r="A61" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="17.25">
-      <c r="A62" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="17.25">
-      <c r="A63" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="17.25">
-      <c r="A64" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="17.25">
-      <c r="A65" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="17.25">
-      <c r="A66" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="17.25">
-      <c r="A67" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="17.25">
-      <c r="A68" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="17.25">
-      <c r="A69" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="18" thickBot="1">
-      <c r="A70" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+    <row r="39" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="12"/>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="12"/>
-    </row>
-    <row r="74" spans="1:1" ht="17.25" thickBot="1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1" ht="16.5" customHeight="1">
-      <c r="A75" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="16.5" customHeight="1">
-      <c r="A76" s="15"/>
-    </row>
-    <row r="77" spans="1:1" ht="16.5" customHeight="1">
-      <c r="A77" s="15"/>
-    </row>
-    <row r="78" spans="1:1" ht="17.25">
-      <c r="A78" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="17.25">
-      <c r="A79" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="17.25">
-      <c r="A80" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="17.25">
-      <c r="A81" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="17.25">
-      <c r="A82" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="17.25">
-      <c r="A83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="17.25">
-      <c r="A84" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="17.25">
-      <c r="A85" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="17.25">
-      <c r="A86" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="17.25">
-      <c r="A87" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="17.25">
-      <c r="A88" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="17.25">
-      <c r="A89" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="17.25">
-      <c r="A90" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="17.25">
-      <c r="A91" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="17.25">
-      <c r="A92" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="17.25">
-      <c r="A93" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="17.25">
-      <c r="A94" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="17.25">
-      <c r="A95" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="17.25">
-      <c r="A96" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="17.25">
-      <c r="A97" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="17.25">
-      <c r="A98" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="17.25">
-      <c r="A99" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="17.25">
-      <c r="A100" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="17.25">
-      <c r="A101" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="17.25">
-      <c r="A102" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="17.25">
-      <c r="A103" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="17.25">
-      <c r="A104" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="17.25">
-      <c r="A105" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="18" thickBot="1">
-      <c r="A106" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="12"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="12"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="12"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="12"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="12"/>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="12"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="12"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="12"/>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="12"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="12"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="12"/>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="12"/>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="12"/>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="12"/>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="12"/>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="12"/>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="12"/>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="12"/>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="12"/>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="12"/>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="12"/>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="12"/>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="12"/>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="12"/>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="12"/>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="12"/>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="12"/>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="12"/>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="12"/>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="12"/>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="12"/>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="12"/>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="12"/>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="12"/>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="12"/>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="12"/>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="12"/>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="12"/>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="12"/>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="12"/>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="12"/>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="12"/>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="12"/>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="12"/>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="12"/>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="12"/>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="12"/>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="12"/>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="12"/>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="12"/>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="12"/>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="12"/>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="12"/>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="12"/>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="12"/>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="12"/>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="12"/>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="12"/>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="12"/>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="12"/>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="12"/>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="12"/>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="12"/>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="12"/>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="12"/>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="12"/>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="12"/>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="12"/>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="12"/>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="12"/>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="12"/>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="12"/>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="12"/>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="12"/>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="12"/>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="12"/>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="12"/>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="12"/>
-    </row>
-    <row r="185" spans="1:1">
+    <row r="75" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75"/>
+    </row>
+    <row r="76" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76"/>
+    </row>
+    <row r="77" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="12"/>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="12"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="12"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="12"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="12"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="12"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="12"/>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="12"/>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="12"/>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="12"/>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="12"/>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="12"/>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="12"/>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="12"/>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="12"/>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="12"/>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="12"/>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="12"/>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="12"/>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="12"/>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="12"/>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="12"/>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="12"/>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="12"/>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A75:A77"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
